--- a/Income/GNRC_inc.xlsx
+++ b/Income/GNRC_inc.xlsx
@@ -2110,16 +2110,16 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.369</v>
+        <v>0.3727</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.3627</v>
+        <v>0.3666</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.3581</v>
+        <v>0.3621</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.358</v>
+        <v>0.3619</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.3582</v>
@@ -2618,16 +2618,16 @@
         <v>0.1708</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.1896</v>
+        <v>0.0625</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.1768</v>
+        <v>0.0439</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.1325</v>
+        <v>-0.0007</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.1329</v>
+        <v>-0.0006</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.0802</v>
@@ -3634,16 +3634,16 @@
         <v>0.2253</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.2128</v>
+        <v>0.1909</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.1994</v>
+        <v>0.1765</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1949</v>
+        <v>0.1719</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1981</v>
+        <v>0.1751</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.2005</v>
@@ -3761,16 +3761,16 @@
         <v>0.1958</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.1915</v>
+        <v>0.0644</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.1803</v>
+        <v>0.0474</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.1383</v>
+        <v>0.0051</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.1401</v>
+        <v>0.0066</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.1112</v>
